--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>787326.0679686795</v>
+        <v>817774.0897550599</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18157355.41581893</v>
+        <v>16877859.47655641</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3559241.608843295</v>
+        <v>2305207.638772118</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6288209.360036415</v>
+        <v>6808871.848137999</v>
       </c>
     </row>
     <row r="11">
@@ -662,16 +664,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>365.0923086358374</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>154.570342343335</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>162.9282706828481</v>
       </c>
       <c r="C4" t="n">
-        <v>8.909245336632258</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -883,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>219.9115352310093</v>
       </c>
       <c r="C5" t="n">
-        <v>121.6046469854366</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -1069,10 +1071,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1117,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>102.2146311366279</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>257.2926832743553</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>17.85520489065464</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>24.34318456170507</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>67.4289457920829</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1370,7 +1372,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1379,7 +1381,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>152.6796325322482</v>
+        <v>260.1675526731442</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1427,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1543,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1607,7 +1609,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1616,16 +1618,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>195.1569564646402</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>152.6796325322483</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U16" t="n">
-        <v>67.42894579208335</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2093,13 +2095,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>24.34318456170439</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2494,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>120.1838601509832</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2725,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2950,10 +2952,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>126.8355823247564</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>131.3131589043794</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3439,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>140.4342819615958</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3521,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3667,16 +3669,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>83.42661545872123</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3752,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>93.77676262085224</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>198.9926249238794</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>24.34318456170507</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>389.3965219328836</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>117.7606824929577</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4135,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>10.04027365719937</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>861.6672762824977</v>
+        <v>1808.996943758212</v>
       </c>
       <c r="C2" t="n">
-        <v>423.524803465921</v>
+        <v>1370.854470941636</v>
       </c>
       <c r="D2" t="n">
-        <v>423.524803465921</v>
+        <v>934.9446861160802</v>
       </c>
       <c r="E2" t="n">
-        <v>423.524803465921</v>
+        <v>501.1699412743753</v>
       </c>
       <c r="F2" t="n">
-        <v>423.524803465921</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="G2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="H2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I2" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J2" t="n">
-        <v>489.9993811856698</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K2" t="n">
-        <v>1167.464966128475</v>
+        <v>907.652803641761</v>
       </c>
       <c r="L2" t="n">
-        <v>1167.464966128475</v>
+        <v>907.652803641761</v>
       </c>
       <c r="M2" t="n">
-        <v>1167.464966128475</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="N2" t="n">
-        <v>1167.464966128475</v>
+        <v>2721.889967810442</v>
       </c>
       <c r="O2" t="n">
-        <v>1344.116250983141</v>
+        <v>3629.008549894782</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.581835925947</v>
+        <v>3629.008549894782</v>
       </c>
       <c r="Q2" t="n">
-        <v>2568.080621884541</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="R2" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S2" t="n">
-        <v>2737.234686637598</v>
+        <v>3581.473710362991</v>
       </c>
       <c r="T2" t="n">
-        <v>2737.234686637598</v>
+        <v>3425.34205143033</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.012383954615</v>
+        <v>3425.34205143033</v>
       </c>
       <c r="V2" t="n">
-        <v>2115.395433888441</v>
+        <v>3062.725101364156</v>
       </c>
       <c r="W2" t="n">
-        <v>2115.395433888441</v>
+        <v>3062.725101364156</v>
       </c>
       <c r="X2" t="n">
-        <v>1696.252970467752</v>
+        <v>2643.582637943467</v>
       </c>
       <c r="Y2" t="n">
-        <v>1287.966846767406</v>
+        <v>2235.29651424312</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C3" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D3" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E3" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F3" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G3" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K3" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="L3" t="n">
-        <v>54.74469373275195</v>
+        <v>980.4210937679237</v>
       </c>
       <c r="M3" t="n">
-        <v>54.74469373275195</v>
+        <v>980.4210937679237</v>
       </c>
       <c r="N3" t="n">
-        <v>54.74469373275195</v>
+        <v>980.4210937679237</v>
       </c>
       <c r="O3" t="n">
-        <v>382.60715354234</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="P3" t="n">
-        <v>1060.072738485145</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="Q3" t="n">
-        <v>1600.811677117221</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="R3" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S3" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T3" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U3" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V3" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W3" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X3" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y3" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>970.2403805416282</v>
+        <v>810.0409570294266</v>
       </c>
       <c r="C4" t="n">
-        <v>961.2411428278582</v>
+        <v>810.0409570294266</v>
       </c>
       <c r="D4" t="n">
-        <v>795.3631500293809</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="E4" t="n">
-        <v>625.6051462801182</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F4" t="n">
-        <v>448.8980922418745</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G4" t="n">
-        <v>283.3068172677021</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H4" t="n">
-        <v>143.4046429580766</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I4" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J4" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K4" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L4" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M4" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N4" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O4" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P4" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q4" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R4" t="n">
-        <v>2649.986482340924</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S4" t="n">
-        <v>2490.74511363892</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T4" t="n">
-        <v>2244.865667217376</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U4" t="n">
-        <v>1966.432666470481</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V4" t="n">
-        <v>1679.477158340911</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W4" t="n">
-        <v>1407.450753927203</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X4" t="n">
-        <v>1162.058999260615</v>
+        <v>1202.034638506074</v>
       </c>
       <c r="Y4" t="n">
-        <v>1162.058999260615</v>
+        <v>974.6149678201823</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>579.3922912353144</v>
+        <v>1628.024501406311</v>
       </c>
       <c r="C5" t="n">
-        <v>456.5593144823481</v>
+        <v>1628.024501406311</v>
       </c>
       <c r="D5" t="n">
-        <v>456.5593144823481</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="E5" t="n">
-        <v>456.5593144823481</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="F5" t="n">
-        <v>456.5593144823481</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G5" t="n">
-        <v>55.16148310561195</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H5" t="n">
-        <v>55.16148310561195</v>
+        <v>73.71930105644309</v>
       </c>
       <c r="I5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J5" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K5" t="n">
-        <v>54.74469373275195</v>
+        <v>907.652803641761</v>
       </c>
       <c r="L5" t="n">
-        <v>54.74469373275195</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="M5" t="n">
-        <v>54.74469373275195</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="N5" t="n">
-        <v>732.2102786755574</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="O5" t="n">
-        <v>1344.116250983141</v>
+        <v>2721.889967810442</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.581835925947</v>
+        <v>3550.199842643838</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.080621884541</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="R5" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S5" t="n">
-        <v>2653.582812821435</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T5" t="n">
-        <v>2433.515585694473</v>
+        <v>3445.058357052193</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.293283011491</v>
+        <v>3445.058357052193</v>
       </c>
       <c r="V5" t="n">
-        <v>1811.676332945317</v>
+        <v>3082.44140698602</v>
       </c>
       <c r="W5" t="n">
-        <v>1406.82087835635</v>
+        <v>2677.585952397053</v>
       </c>
       <c r="X5" t="n">
-        <v>987.678414935661</v>
+        <v>2258.443488976364</v>
       </c>
       <c r="Y5" t="n">
-        <v>579.3922912353144</v>
+        <v>1850.157365276017</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>560.9164387240447</v>
+        <v>2508.057567691639</v>
       </c>
       <c r="C6" t="n">
-        <v>454.459977560687</v>
+        <v>2401.601106528281</v>
       </c>
       <c r="D6" t="n">
-        <v>359.3696887072403</v>
+        <v>2306.510817674834</v>
       </c>
       <c r="E6" t="n">
-        <v>265.249274034194</v>
+        <v>2212.390403001788</v>
       </c>
       <c r="F6" t="n">
-        <v>181.8654356503556</v>
+        <v>2129.00656461795</v>
       </c>
       <c r="G6" t="n">
-        <v>96.48034591653948</v>
+        <v>2043.621474884133</v>
       </c>
       <c r="H6" t="n">
-        <v>54.74469373275195</v>
+        <v>2001.885822700346</v>
       </c>
       <c r="I6" t="n">
-        <v>54.74469373275195</v>
+        <v>2001.885822700346</v>
       </c>
       <c r="J6" t="n">
-        <v>54.74469373275195</v>
+        <v>2326.444147666558</v>
       </c>
       <c r="K6" t="n">
-        <v>54.74469373275195</v>
+        <v>3007.177667736936</v>
       </c>
       <c r="L6" t="n">
-        <v>54.74469373275195</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="M6" t="n">
-        <v>732.2102786755574</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="N6" t="n">
-        <v>1409.675863618363</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="O6" t="n">
-        <v>1717.984455211561</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="P6" t="n">
-        <v>1717.984455211561</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="Q6" t="n">
-        <v>1717.984455211561</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="R6" t="n">
-        <v>1717.984455211561</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.529017659944</v>
+        <v>3601.670146627538</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.350373990545</v>
+        <v>3471.491502958139</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.013826990514</v>
+        <v>3295.154955958108</v>
       </c>
       <c r="V6" t="n">
-        <v>1148.896309052513</v>
+        <v>3096.037438020107</v>
       </c>
       <c r="W6" t="n">
-        <v>963.5735547857071</v>
+        <v>2910.714683753301</v>
       </c>
       <c r="X6" t="n">
-        <v>808.7061190245871</v>
+        <v>2755.847247992181</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.2203398038079</v>
+        <v>2629.361468771402</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>905.2407308096831</v>
+        <v>1152.360672295464</v>
       </c>
       <c r="C7" t="n">
-        <v>732.679019292908</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="D7" t="n">
-        <v>566.8010264944307</v>
+        <v>813.920967980212</v>
       </c>
       <c r="E7" t="n">
-        <v>397.0430227451681</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F7" t="n">
-        <v>220.3359687069243</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G7" t="n">
-        <v>54.74469373275195</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H7" t="n">
-        <v>54.74469373275195</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I7" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J7" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K7" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L7" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M7" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O7" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R7" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S7" t="n">
-        <v>2653.165134592867</v>
+        <v>2530.720752884379</v>
       </c>
       <c r="T7" t="n">
-        <v>2407.285688171322</v>
+        <v>2284.841306462834</v>
       </c>
       <c r="U7" t="n">
-        <v>2128.852687424428</v>
+        <v>2006.40830571594</v>
       </c>
       <c r="V7" t="n">
-        <v>1841.897179294858</v>
+        <v>1719.45279758637</v>
       </c>
       <c r="W7" t="n">
-        <v>1569.87077488115</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="X7" t="n">
-        <v>1324.479020214562</v>
+        <v>1447.426393172662</v>
       </c>
       <c r="Y7" t="n">
-        <v>1097.05934952867</v>
+        <v>1344.179291014452</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>716.0341243765137</v>
+        <v>1643.925021918071</v>
       </c>
       <c r="C8" t="n">
-        <v>456.1425251094881</v>
+        <v>1643.925021918071</v>
       </c>
       <c r="D8" t="n">
-        <v>456.1425251094881</v>
+        <v>1625.88946142246</v>
       </c>
       <c r="E8" t="n">
-        <v>456.1425251094881</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="F8" t="n">
-        <v>456.1425251094881</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G8" t="n">
-        <v>54.74469373275195</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644309</v>
       </c>
       <c r="I8" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J8" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K8" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L8" t="n">
-        <v>1344.116250983141</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M8" t="n">
-        <v>1344.116250983141</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N8" t="n">
-        <v>1344.116250983141</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="O8" t="n">
-        <v>1344.116250983141</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.581835925947</v>
+        <v>3078.335948012416</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.080621884541</v>
+        <v>3624.83473397101</v>
       </c>
       <c r="R8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U8" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V8" t="n">
-        <v>2374.617736571424</v>
+        <v>3302.508634112981</v>
       </c>
       <c r="W8" t="n">
-        <v>1969.762281982458</v>
+        <v>2897.653179524014</v>
       </c>
       <c r="X8" t="n">
-        <v>1550.619818561768</v>
+        <v>2478.510716103325</v>
       </c>
       <c r="Y8" t="n">
-        <v>1142.333694861421</v>
+        <v>2070.224592402978</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C9" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D9" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E9" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F9" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G9" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H9" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I9" t="n">
-        <v>80.80836689320955</v>
+        <v>99.36618484404069</v>
       </c>
       <c r="J9" t="n">
-        <v>405.3666918594219</v>
+        <v>99.36618484404069</v>
       </c>
       <c r="K9" t="n">
-        <v>1060.072738485145</v>
+        <v>99.36618484404069</v>
       </c>
       <c r="L9" t="n">
-        <v>1060.072738485145</v>
+        <v>99.36618484404069</v>
       </c>
       <c r="M9" t="n">
-        <v>1060.072738485145</v>
+        <v>1006.484766928381</v>
       </c>
       <c r="N9" t="n">
-        <v>1060.072738485145</v>
+        <v>1006.484766928381</v>
       </c>
       <c r="O9" t="n">
-        <v>1060.072738485145</v>
+        <v>1006.484766928381</v>
       </c>
       <c r="P9" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q9" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R9" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V9" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W9" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X9" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>764.2385311503645</v>
+        <v>1152.360672295464</v>
       </c>
       <c r="C10" t="n">
-        <v>591.6768196335894</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="D10" t="n">
-        <v>425.7988268351121</v>
+        <v>813.920967980212</v>
       </c>
       <c r="E10" t="n">
-        <v>256.0408230858494</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F10" t="n">
-        <v>79.33376904760556</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G10" t="n">
-        <v>54.74469373275195</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H10" t="n">
-        <v>54.74469373275195</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I10" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J10" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K10" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L10" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M10" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O10" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R10" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S10" t="n">
-        <v>2512.162934933549</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T10" t="n">
-        <v>2266.283488512004</v>
+        <v>2444.082675164838</v>
       </c>
       <c r="U10" t="n">
-        <v>1987.850487765109</v>
+        <v>2375.972628910209</v>
       </c>
       <c r="V10" t="n">
-        <v>1700.894979635539</v>
+        <v>2089.017120780639</v>
       </c>
       <c r="W10" t="n">
-        <v>1428.868575221831</v>
+        <v>1816.990716366931</v>
       </c>
       <c r="X10" t="n">
-        <v>1183.476820555243</v>
+        <v>1571.598961700343</v>
       </c>
       <c r="Y10" t="n">
-        <v>956.0571498693516</v>
+        <v>1344.179291014452</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1078.651074442687</v>
+        <v>1643.925021918071</v>
       </c>
       <c r="C11" t="n">
-        <v>1078.651074442687</v>
+        <v>1205.782549101494</v>
       </c>
       <c r="D11" t="n">
-        <v>642.7412896171318</v>
+        <v>769.8727642759386</v>
       </c>
       <c r="E11" t="n">
-        <v>208.9665447754269</v>
+        <v>336.0980194342338</v>
       </c>
       <c r="F11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="G11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="H11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I11" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J11" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K11" t="n">
-        <v>666.6506660403358</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L11" t="n">
-        <v>666.6506660403358</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M11" t="n">
-        <v>1344.116250983141</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N11" t="n">
-        <v>1344.116250983141</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="O11" t="n">
-        <v>1344.116250983141</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="P11" t="n">
-        <v>2021.581835925947</v>
+        <v>3078.335948012416</v>
       </c>
       <c r="Q11" t="n">
-        <v>2568.080621884541</v>
+        <v>3624.83473397101</v>
       </c>
       <c r="R11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U11" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V11" t="n">
-        <v>2737.234686637598</v>
+        <v>3302.508634112981</v>
       </c>
       <c r="W11" t="n">
-        <v>2332.379232048631</v>
+        <v>2897.653179524014</v>
       </c>
       <c r="X11" t="n">
-        <v>1913.236768627942</v>
+        <v>2478.510716103325</v>
       </c>
       <c r="Y11" t="n">
-        <v>1504.950644927595</v>
+        <v>2070.224592402978</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C12" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D12" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E12" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F12" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G12" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H12" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I12" t="n">
-        <v>54.74469373275195</v>
+        <v>99.36618484404069</v>
       </c>
       <c r="J12" t="n">
-        <v>54.74469373275195</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K12" t="n">
-        <v>54.74469373275195</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L12" t="n">
-        <v>499.7799316366797</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M12" t="n">
-        <v>499.7799316366797</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N12" t="n">
-        <v>499.7799316366797</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O12" t="n">
-        <v>499.7799316366797</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P12" t="n">
-        <v>1177.245516579485</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q12" t="n">
-        <v>1717.984455211561</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R12" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V12" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W12" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X12" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>905.2407308096831</v>
+        <v>1063.70072307014</v>
       </c>
       <c r="C13" t="n">
-        <v>732.679019292908</v>
+        <v>891.1390115533646</v>
       </c>
       <c r="D13" t="n">
-        <v>566.8010264944307</v>
+        <v>725.2610187548873</v>
       </c>
       <c r="E13" t="n">
-        <v>397.0430227451681</v>
+        <v>555.5030150056247</v>
       </c>
       <c r="F13" t="n">
-        <v>220.3359687069243</v>
+        <v>378.7959609673809</v>
       </c>
       <c r="G13" t="n">
-        <v>54.74469373275195</v>
+        <v>213.2046859932086</v>
       </c>
       <c r="H13" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I13" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J13" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K13" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L13" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M13" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O13" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S13" t="n">
-        <v>2653.165134592867</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T13" t="n">
-        <v>2407.285688171322</v>
+        <v>2565.745680431779</v>
       </c>
       <c r="U13" t="n">
-        <v>2128.852687424428</v>
+        <v>2287.312679684884</v>
       </c>
       <c r="V13" t="n">
-        <v>1841.897179294858</v>
+        <v>2000.357171555315</v>
       </c>
       <c r="W13" t="n">
-        <v>1569.87077488115</v>
+        <v>1728.330767141606</v>
       </c>
       <c r="X13" t="n">
-        <v>1324.479020214562</v>
+        <v>1482.939012475019</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.05934952867</v>
+        <v>1255.519341789127</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>924.4292234000122</v>
+        <v>2006.541971984244</v>
       </c>
       <c r="C14" t="n">
-        <v>924.4292234000122</v>
+        <v>1568.399499167668</v>
       </c>
       <c r="D14" t="n">
-        <v>488.5194385744568</v>
+        <v>1132.489714342112</v>
       </c>
       <c r="E14" t="n">
-        <v>54.74469373275195</v>
+        <v>698.7149695004073</v>
       </c>
       <c r="F14" t="n">
-        <v>54.74469373275195</v>
+        <v>270.847539909615</v>
       </c>
       <c r="G14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644309</v>
       </c>
       <c r="H14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.71930105644309</v>
       </c>
       <c r="I14" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J14" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K14" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L14" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M14" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N14" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="O14" t="n">
-        <v>1844.930551071281</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="P14" t="n">
-        <v>2522.396136014086</v>
+        <v>3078.335948012416</v>
       </c>
       <c r="Q14" t="n">
-        <v>2568.080621884541</v>
+        <v>3624.83473397101</v>
       </c>
       <c r="R14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T14" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U14" t="n">
-        <v>2583.012835594923</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V14" t="n">
-        <v>2583.012835594923</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="W14" t="n">
-        <v>2178.157381005956</v>
+        <v>3260.270129590188</v>
       </c>
       <c r="X14" t="n">
-        <v>1759.014917585267</v>
+        <v>2841.127666169499</v>
       </c>
       <c r="Y14" t="n">
-        <v>1350.72879388492</v>
+        <v>2432.841542469152</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C15" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D15" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E15" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F15" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G15" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I15" t="n">
-        <v>80.80836689320955</v>
+        <v>99.36618484404069</v>
       </c>
       <c r="J15" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K15" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L15" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M15" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N15" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O15" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P15" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q15" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R15" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V15" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W15" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X15" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1133.802854344633</v>
+        <v>1063.70072307014</v>
       </c>
       <c r="C16" t="n">
-        <v>961.2411428278582</v>
+        <v>891.1390115533646</v>
       </c>
       <c r="D16" t="n">
-        <v>795.3631500293809</v>
+        <v>725.2610187548873</v>
       </c>
       <c r="E16" t="n">
-        <v>625.6051462801182</v>
+        <v>555.5030150056247</v>
       </c>
       <c r="F16" t="n">
-        <v>448.8980922418745</v>
+        <v>378.7959609673809</v>
       </c>
       <c r="G16" t="n">
-        <v>283.3068172677021</v>
+        <v>213.2046859932086</v>
       </c>
       <c r="H16" t="n">
-        <v>143.4046429580766</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I16" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J16" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K16" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L16" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M16" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O16" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S16" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T16" t="n">
-        <v>2425.524857214007</v>
+        <v>2565.745680431779</v>
       </c>
       <c r="U16" t="n">
-        <v>2357.414810959378</v>
+        <v>2287.312679684884</v>
       </c>
       <c r="V16" t="n">
-        <v>2070.459302829808</v>
+        <v>2000.357171555315</v>
       </c>
       <c r="W16" t="n">
-        <v>1798.4328984161</v>
+        <v>1728.330767141606</v>
       </c>
       <c r="X16" t="n">
-        <v>1553.041143749512</v>
+        <v>1482.939012475019</v>
       </c>
       <c r="Y16" t="n">
-        <v>1325.62147306362</v>
+        <v>1255.519341789127</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5522,43 +5524,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5741,10 +5743,10 @@
         <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5759,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5832,25 +5834,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>126.8499155856325</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>126.8499155856325</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,7 +5998,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2597.522611637232</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2351.643165215688</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2073.210164468793</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1786.254656339223</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1514.228251925515</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1268.836497258927</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1041.416826573035</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6595,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903949</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
-        <v>970.9960463903949</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
         <v>842.8792965674086</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D32" t="n">
         <v>1654.847790009657</v>
@@ -6686,7 +6688,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
         <v>391.8077842004234</v>
@@ -6701,28 +6703,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.671098481817</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
         <v>5029.390139722817</v>
@@ -6731,19 +6733,19 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="33">
@@ -6774,19 +6776,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
         <v>1107.588885023173</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1008.757289365886</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2451.623182457406</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2173.190181710511</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1886.234673580942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1614.208269167233</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1368.816514500646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1141.396843814754</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3575.440564248063</v>
+        <v>3346.878440713113</v>
       </c>
       <c r="C37" t="n">
-        <v>3402.878852731288</v>
+        <v>3174.316729196338</v>
       </c>
       <c r="D37" t="n">
-        <v>3237.000859932811</v>
+        <v>3008.438736397861</v>
       </c>
       <c r="E37" t="n">
-        <v>3067.242856183548</v>
+        <v>2838.680732648598</v>
       </c>
       <c r="F37" t="n">
-        <v>2890.535802145304</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G37" t="n">
-        <v>2724.944527171132</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="H37" t="n">
-        <v>2585.042352861507</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I37" t="n">
         <v>2496.382403636182</v>
@@ -7117,28 +7119,28 @@
         <v>5113.042013538981</v>
       </c>
       <c r="R37" t="n">
-        <v>5091.624192244353</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S37" t="n">
-        <v>4932.38282354235</v>
+        <v>5094.802844496297</v>
       </c>
       <c r="T37" t="n">
-        <v>4932.38282354235</v>
+        <v>4848.923398074752</v>
       </c>
       <c r="U37" t="n">
-        <v>4653.949822795455</v>
+        <v>4570.490397327858</v>
       </c>
       <c r="V37" t="n">
-        <v>4512.097012733238</v>
+        <v>4283.534889198289</v>
       </c>
       <c r="W37" t="n">
-        <v>4240.070608319529</v>
+        <v>4011.50848478458</v>
       </c>
       <c r="X37" t="n">
-        <v>3994.678853652942</v>
+        <v>3766.116730117992</v>
       </c>
       <c r="Y37" t="n">
-        <v>3767.25918296705</v>
+        <v>3538.697059432101</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7181,7 +7183,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423628</v>
@@ -7199,25 +7201,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>367.6278435343481</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>190.9207894961043</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2174.293283011491</v>
+        <v>2210.394775134949</v>
       </c>
       <c r="C41" t="n">
-        <v>1736.150810194914</v>
+        <v>1772.252302318372</v>
       </c>
       <c r="D41" t="n">
-        <v>1300.241025369358</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="E41" t="n">
-        <v>866.4662805276535</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F41" t="n">
-        <v>438.5988509368612</v>
+        <v>474.7003430603192</v>
       </c>
       <c r="G41" t="n">
-        <v>343.8748482895357</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="H41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J41" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="K41" t="n">
-        <v>54.74469373275195</v>
+        <v>907.652803641761</v>
       </c>
       <c r="L41" t="n">
-        <v>732.2102786755574</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="M41" t="n">
-        <v>1409.675863618363</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="N41" t="n">
-        <v>2087.141448561168</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="O41" t="n">
-        <v>2568.080621884541</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P41" t="n">
-        <v>2568.080621884541</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q41" t="n">
-        <v>2568.080621884541</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="R41" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S41" t="n">
-        <v>2653.582812821435</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T41" t="n">
-        <v>2433.515585694473</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="U41" t="n">
-        <v>2174.293283011491</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="V41" t="n">
-        <v>2174.293283011491</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="W41" t="n">
-        <v>2174.293283011491</v>
+        <v>3464.122932740892</v>
       </c>
       <c r="X41" t="n">
-        <v>2174.293283011491</v>
+        <v>3044.980469320203</v>
       </c>
       <c r="Y41" t="n">
-        <v>2174.293283011491</v>
+        <v>2636.694345619856</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C42" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D42" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E42" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F42" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G42" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H42" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I42" t="n">
-        <v>80.80836689320955</v>
+        <v>99.36618484404069</v>
       </c>
       <c r="J42" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P42" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q42" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R42" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V42" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W42" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X42" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>764.2385311503645</v>
+        <v>923.7985487605142</v>
       </c>
       <c r="C43" t="n">
-        <v>591.6768196335894</v>
+        <v>751.2368372437392</v>
       </c>
       <c r="D43" t="n">
-        <v>425.7988268351121</v>
+        <v>585.3588444452619</v>
       </c>
       <c r="E43" t="n">
-        <v>256.0408230858494</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F43" t="n">
-        <v>79.33376904760556</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="H43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I43" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J43" t="n">
-        <v>141.3243788974418</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K43" t="n">
-        <v>416.0828334685774</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L43" t="n">
-        <v>834.2927152365385</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M43" t="n">
-        <v>1293.776582417452</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.035385575096</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O43" t="n">
-        <v>2155.704634800878</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.211528771219</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R43" t="n">
-        <v>2671.404303635552</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S43" t="n">
-        <v>2512.162934933549</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T43" t="n">
-        <v>2266.283488512004</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U43" t="n">
-        <v>1987.850487765109</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V43" t="n">
-        <v>1700.894979635539</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W43" t="n">
-        <v>1428.868575221831</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X43" t="n">
-        <v>1183.476820555243</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y43" t="n">
-        <v>956.0571498693516</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1790.855915180241</v>
+        <v>1197.605242458808</v>
       </c>
       <c r="C44" t="n">
-        <v>1352.713442363665</v>
+        <v>1197.605242458808</v>
       </c>
       <c r="D44" t="n">
-        <v>916.8036575381091</v>
+        <v>1197.605242458808</v>
       </c>
       <c r="E44" t="n">
-        <v>483.0289126964042</v>
+        <v>763.830497617103</v>
       </c>
       <c r="F44" t="n">
-        <v>55.16148310561195</v>
+        <v>763.830497617103</v>
       </c>
       <c r="G44" t="n">
-        <v>55.16148310561195</v>
+        <v>362.4326662403668</v>
       </c>
       <c r="H44" t="n">
-        <v>55.16148310561195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I44" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J44" t="n">
-        <v>489.9993811856698</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K44" t="n">
-        <v>489.9993811856698</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L44" t="n">
-        <v>489.9993811856698</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M44" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N44" t="n">
-        <v>1167.464966128475</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="O44" t="n">
-        <v>1344.116250983141</v>
+        <v>2250.02607317902</v>
       </c>
       <c r="P44" t="n">
-        <v>2021.581835925947</v>
+        <v>3078.335948012416</v>
       </c>
       <c r="Q44" t="n">
-        <v>2568.080621884541</v>
+        <v>3624.83473397101</v>
       </c>
       <c r="R44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="S44" t="n">
-        <v>2737.234686637598</v>
+        <v>3665.125584179154</v>
       </c>
       <c r="T44" t="n">
-        <v>2737.234686637598</v>
+        <v>3445.058357052193</v>
       </c>
       <c r="U44" t="n">
-        <v>2737.234686637598</v>
+        <v>3185.83605436921</v>
       </c>
       <c r="V44" t="n">
-        <v>2737.234686637598</v>
+        <v>2823.219104303036</v>
       </c>
       <c r="W44" t="n">
-        <v>2618.284502301277</v>
+        <v>2418.36364971407</v>
       </c>
       <c r="X44" t="n">
-        <v>2199.142038880588</v>
+        <v>1999.22118629338</v>
       </c>
       <c r="Y44" t="n">
-        <v>1790.855915180241</v>
+        <v>1590.935062593034</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>560.9164387240447</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C45" t="n">
-        <v>454.459977560687</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D45" t="n">
-        <v>359.3696887072403</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E45" t="n">
-        <v>265.249274034194</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F45" t="n">
-        <v>181.8654356503556</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G45" t="n">
-        <v>96.48034591653948</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H45" t="n">
-        <v>54.74469373275195</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="I45" t="n">
-        <v>80.80836689320955</v>
+        <v>99.36618484404069</v>
       </c>
       <c r="J45" t="n">
-        <v>405.3666918594219</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P45" t="n">
-        <v>1060.072738485145</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q45" t="n">
-        <v>1600.811677117221</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R45" t="n">
-        <v>1717.984455211561</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S45" t="n">
-        <v>1654.529017659944</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T45" t="n">
-        <v>1524.350373990545</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U45" t="n">
-        <v>1348.013826990514</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V45" t="n">
-        <v>1148.896309052513</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W45" t="n">
-        <v>963.5735547857071</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X45" t="n">
-        <v>808.7061190245871</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y45" t="n">
-        <v>682.2203398038079</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>808.6510928577823</v>
+        <v>1152.360672295464</v>
       </c>
       <c r="C46" t="n">
-        <v>798.5094022949546</v>
+        <v>979.7989607786893</v>
       </c>
       <c r="D46" t="n">
-        <v>632.6314094964773</v>
+        <v>813.920967980212</v>
       </c>
       <c r="E46" t="n">
-        <v>462.8734057472146</v>
+        <v>644.1629642309493</v>
       </c>
       <c r="F46" t="n">
-        <v>286.1663517089709</v>
+        <v>467.4559101927056</v>
       </c>
       <c r="G46" t="n">
-        <v>120.5750767347985</v>
+        <v>301.8646352185332</v>
       </c>
       <c r="H46" t="n">
-        <v>120.5750767347985</v>
+        <v>161.9624609089078</v>
       </c>
       <c r="I46" t="n">
-        <v>120.5750767347985</v>
+        <v>73.30251168358309</v>
       </c>
       <c r="J46" t="n">
-        <v>207.1547618994884</v>
+        <v>159.882196848273</v>
       </c>
       <c r="K46" t="n">
-        <v>481.9132164706239</v>
+        <v>434.6406514194085</v>
       </c>
       <c r="L46" t="n">
-        <v>900.123098238585</v>
+        <v>852.8505331873696</v>
       </c>
       <c r="M46" t="n">
-        <v>1359.606965419498</v>
+        <v>1312.334400368283</v>
       </c>
       <c r="N46" t="n">
-        <v>1801.865768577142</v>
+        <v>1754.593203525927</v>
       </c>
       <c r="O46" t="n">
-        <v>2221.535017802924</v>
+        <v>2174.262452751709</v>
       </c>
       <c r="P46" t="n">
-        <v>2569.041911773266</v>
+        <v>2521.769346722051</v>
       </c>
       <c r="Q46" t="n">
-        <v>2737.234686637598</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="R46" t="n">
-        <v>2715.81686534297</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="S46" t="n">
-        <v>2556.575496640966</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T46" t="n">
-        <v>2310.696050219422</v>
+        <v>2654.405629657103</v>
       </c>
       <c r="U46" t="n">
-        <v>2032.263049472527</v>
+        <v>2375.972628910209</v>
       </c>
       <c r="V46" t="n">
-        <v>1745.307541342957</v>
+        <v>2089.017120780639</v>
       </c>
       <c r="W46" t="n">
-        <v>1473.281136929249</v>
+        <v>1816.990716366931</v>
       </c>
       <c r="X46" t="n">
-        <v>1227.889382262661</v>
+        <v>1571.598961700343</v>
       </c>
       <c r="Y46" t="n">
-        <v>1000.469711576769</v>
+        <v>1344.179291014452</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="O2" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>36.48185281249698</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>331.1742018278667</v>
+        <v>763.7587670651193</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,28 +8218,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157522</v>
+        <v>116.0866076114307</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,22 +8294,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>664.5938549921402</v>
       </c>
       <c r="M6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4228197911089</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8453,10 +8455,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,16 +8531,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>72.87453485615674</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8690,28 +8692,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>178.4356412673393</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697543</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>449.5305433373007</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8929,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8939,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>46.1459453236921</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9170,10 +9172,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9407,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9480,10 +9482,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9501,7 +9503,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,10 +9646,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -10109,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>922.699389992646</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>583.0591140826373</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10659,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11060,28 +11062,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593995</v>
+        <v>480.3490279404667</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>485.7971447710838</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22550,16 +22552,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>32.29154442713138</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -22595,13 +22597,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>63.29621251235679</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22702,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>26.97216184894913</v>
       </c>
       <c r="C4" t="n">
-        <v>161.926849064975</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22771,7 +22773,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22781,25 +22783,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>202.1250395490494</v>
       </c>
       <c r="C5" t="n">
-        <v>312.1564011029743</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22832,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -22957,10 +22959,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22990,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23005,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>122.9308428424049</v>
       </c>
     </row>
     <row r="8">
@@ -23021,25 +23023,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>176.4683648140556</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>413.6954820866453</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23191,13 +23193,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,13 +23229,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>208.2197249473428</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23258,7 +23260,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>270.9091227626361</v>
+        <v>163.4212026217401</v>
       </c>
       <c r="G11" t="n">
         <v>397.3838530629687</v>
@@ -23315,7 +23317,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23431,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23464,10 +23466,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23495,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>202.2268965983286</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,7 +23551,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>103.9504471239049</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23706,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473423</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>63.43016517136702</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24382,7 +24384,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>37.46509486400015</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>37.38363054573608</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>229.4233680290251</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>58.5872736274178</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>143.6516710866781</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25555,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>84.63380825304888</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>303.6070904421165</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>201.8142751191976</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>139.5921776627255</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>32.64005284717507</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,16 +25918,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>283.0462175501193</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>160.7958207444079</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>429572.2566045029</v>
+        <v>519218.860092991</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>429572.256604503</v>
+        <v>519218.8600929911</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>429572.256604503</v>
+        <v>519218.8600929911</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>429572.2566045029</v>
+        <v>519218.8600929912</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>429572.256604503</v>
+        <v>519218.8600929911</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>659106.847324243</v>
+        <v>659106.8473242429</v>
       </c>
     </row>
     <row r="10">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>429572.256604503</v>
+        <v>519218.8600929911</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>429572.256604503</v>
+        <v>519218.8600929911</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>188858.4092779992</v>
+        <v>228270.9054802363</v>
       </c>
       <c r="C2" t="n">
-        <v>188858.4092779992</v>
+        <v>228270.9054802363</v>
       </c>
       <c r="D2" t="n">
-        <v>188858.4092779991</v>
+        <v>228270.9054802363</v>
       </c>
       <c r="E2" t="n">
-        <v>188858.4092779991</v>
+        <v>228270.9054802363</v>
       </c>
       <c r="F2" t="n">
-        <v>188858.4092779992</v>
+        <v>228270.9054802363</v>
       </c>
       <c r="G2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="H2" t="n">
         <v>289771.6712755438</v>
       </c>
       <c r="I2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="J2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="K2" t="n">
         <v>289771.6712755437</v>
       </c>
       <c r="L2" t="n">
+        <v>289771.6712755437</v>
+      </c>
+      <c r="M2" t="n">
+        <v>289771.6712755438</v>
+      </c>
+      <c r="N2" t="n">
         <v>289771.6712755439</v>
       </c>
-      <c r="M2" t="n">
-        <v>289771.6712755437</v>
-      </c>
-      <c r="N2" t="n">
-        <v>289771.6712755437</v>
-      </c>
       <c r="O2" t="n">
-        <v>188858.4092779991</v>
+        <v>228270.9054802363</v>
       </c>
       <c r="P2" t="n">
-        <v>188858.4092779991</v>
+        <v>228270.9054802363</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>229327.5749725129</v>
+        <v>307066.9702867177</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>162793.2877984415</v>
+        <v>99213.04363527206</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>179045.2580876519</v>
+        <v>239739.5295867427</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18043.07181607991</v>
+        <v>21808.44558019529</v>
       </c>
       <c r="C4" t="n">
-        <v>18043.07181607992</v>
+        <v>21808.44558019528</v>
       </c>
       <c r="D4" t="n">
-        <v>18043.07181607992</v>
+        <v>21808.44558019529</v>
       </c>
       <c r="E4" t="n">
-        <v>18043.07181607991</v>
+        <v>21808.44558019529</v>
       </c>
       <c r="F4" t="n">
-        <v>18043.07181607992</v>
+        <v>21808.44558019529</v>
       </c>
       <c r="G4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020267</v>
       </c>
       <c r="H4" t="n">
         <v>27684.07875020268</v>
@@ -26445,7 +26447,7 @@
         <v>27684.07875020268</v>
       </c>
       <c r="L4" t="n">
-        <v>27684.07875020269</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
         <v>27684.07875020268</v>
@@ -26454,10 +26456,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>18043.07181607992</v>
+        <v>21808.44558019529</v>
       </c>
       <c r="P4" t="n">
-        <v>18043.07181607992</v>
+        <v>21808.44558019529</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="C5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="D5" t="n">
-        <v>75233.56723689148</v>
+        <v>89337.50887952314</v>
       </c>
       <c r="E5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
       <c r="F5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
       <c r="P5" t="n">
-        <v>41605.96723689148</v>
+        <v>55709.90887952314</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-133745.8047474851</v>
+        <v>-189942.0192661998</v>
       </c>
       <c r="C6" t="n">
-        <v>95581.77022502775</v>
+        <v>117124.9510205179</v>
       </c>
       <c r="D6" t="n">
-        <v>95581.77022502775</v>
+        <v>117124.9510205179</v>
       </c>
       <c r="E6" t="n">
-        <v>129209.3702250278</v>
+        <v>150752.5510205179</v>
       </c>
       <c r="F6" t="n">
-        <v>129209.3702250278</v>
+        <v>150752.5510205179</v>
       </c>
       <c r="G6" t="n">
-        <v>21576.06612110716</v>
+        <v>85156.31028427649</v>
       </c>
       <c r="H6" t="n">
         <v>184369.3539195486</v>
@@ -26543,25 +26545,25 @@
         <v>184369.3539195486</v>
       </c>
       <c r="J6" t="n">
-        <v>5324.095831896688</v>
+        <v>-55370.17566719411</v>
       </c>
       <c r="K6" t="n">
         <v>184369.3539195486</v>
       </c>
       <c r="L6" t="n">
-        <v>184369.3539195487</v>
+        <v>184369.3539195486</v>
       </c>
       <c r="M6" t="n">
         <v>184369.3539195486</v>
       </c>
       <c r="N6" t="n">
-        <v>184369.3539195485</v>
+        <v>184369.3539195487</v>
       </c>
       <c r="O6" t="n">
-        <v>129209.3702250278</v>
+        <v>150752.5510205179</v>
       </c>
       <c r="P6" t="n">
-        <v>129209.3702250278</v>
+        <v>150752.5510205178</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="C4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="D4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="E4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="F4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399567</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.3086716593995</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>593.9518317253459</v>
+        <v>361.9791073399567</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="O2" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P2" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>36.48185281249698</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>331.1742018278667</v>
+        <v>763.7587670651193</v>
       </c>
       <c r="P3" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34869,7 +34871,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
@@ -34936,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>916.2813960447885</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>618.0868407147311</v>
+        <v>916.2813960447884</v>
       </c>
       <c r="P5" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157523</v>
+        <v>116.0866076114307</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.8366918850631</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>664.5938549921402</v>
       </c>
       <c r="M6" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>311.4228197911089</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35106,7 +35108,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35173,10 +35175,10 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>178.4356412673392</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P8" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35251,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>72.87453485615674</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35343,7 +35345,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>178.4356412673393</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P11" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
-        <v>449.5305433373007</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35504,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>684.3086716593995</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,7 +35649,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>684.3086716593996</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -35659,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>684.3086716593994</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P14" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>46.1459453236921</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35890,10 +35892,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>143.4079146352437</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36127,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36200,10 +36202,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
-        <v>92.06596429261208</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,10 +36366,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>922.699389992646</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37069,28 +37071,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>583.0591140826373</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1015.482873487266</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37379,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,10 +37551,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>684.3086716593995</v>
+        <v>480.3490279404667</v>
       </c>
       <c r="M41" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>684.3086716593994</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>485.7971447710838</v>
+        <v>916.2813960447886</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>684.3086716593996</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>178.4356412673392</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
-        <v>684.3086716593994</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38181,7 +38183,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>817774.0897550599</v>
+        <v>816152.9312637767</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2305207.638772118</v>
+        <v>2305207.638772116</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6808871.848137999</v>
+        <v>6808871.848138</v>
       </c>
     </row>
     <row r="11">
@@ -661,10 +661,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>120.2159058000138</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>429.4369973932878</v>
@@ -673,13 +673,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>154.570342343335</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.9282706828481</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -834,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>219.9115352310093</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -913,10 +913,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>229.7364118581035</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1059,7 +1059,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>43.7728376562208</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1074,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1119,10 +1119,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>102.2146311366279</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>17.85520489065464</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>429.4369973932878</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>6.130731582303296</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1381,16 +1381,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>260.1675526731442</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>372.504671117847</v>
       </c>
     </row>
     <row r="12">
@@ -1545,7 +1545,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1621,7 +1621,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>195.1569564646402</v>
+        <v>195.1569564646411</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -2101,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
-        <v>13.99728392830417</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3754,7 +3754,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>195.5695779437725</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>198.9926249238794</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>389.3965219328836</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>195.5695779437725</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4152,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1808.996943758212</v>
+        <v>1747.319669301262</v>
       </c>
       <c r="C2" t="n">
-        <v>1370.854470941636</v>
+        <v>1625.88946142246</v>
       </c>
       <c r="D2" t="n">
-        <v>934.9446861160802</v>
+        <v>1625.88946142246</v>
       </c>
       <c r="E2" t="n">
-        <v>501.1699412743753</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="F2" t="n">
-        <v>73.30251168358309</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G2" t="n">
-        <v>73.30251168358309</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H2" t="n">
-        <v>73.30251168358309</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I2" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J2" t="n">
-        <v>73.30251168358309</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K2" t="n">
-        <v>907.652803641761</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L2" t="n">
-        <v>907.652803641761</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="M2" t="n">
-        <v>1814.771385726102</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="N2" t="n">
-        <v>2721.889967810442</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="O2" t="n">
-        <v>3629.008549894782</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P2" t="n">
-        <v>3629.008549894782</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q2" t="n">
-        <v>3665.125584179154</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R2" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S2" t="n">
-        <v>3581.473710362991</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T2" t="n">
-        <v>3425.34205143033</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U2" t="n">
-        <v>3425.34205143033</v>
+        <v>3405.903281496172</v>
       </c>
       <c r="V2" t="n">
-        <v>3062.725101364156</v>
+        <v>3405.903281496172</v>
       </c>
       <c r="W2" t="n">
-        <v>3062.725101364156</v>
+        <v>3001.047826907205</v>
       </c>
       <c r="X2" t="n">
-        <v>2643.582637943467</v>
+        <v>2581.905363486516</v>
       </c>
       <c r="Y2" t="n">
-        <v>2235.29651424312</v>
+        <v>2173.61923978617</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H3" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I3" t="n">
-        <v>73.30251168358309</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J3" t="n">
-        <v>73.30251168358309</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K3" t="n">
-        <v>73.30251168358309</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L3" t="n">
-        <v>980.4210937679237</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M3" t="n">
-        <v>980.4210937679237</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N3" t="n">
-        <v>980.4210937679237</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O3" t="n">
-        <v>1736.542273162392</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P3" t="n">
-        <v>1736.542273162392</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q3" t="n">
-        <v>1736.542273162392</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R3" t="n">
         <v>1736.542273162392</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>810.0409570294266</v>
+        <v>1898.962011353287</v>
       </c>
       <c r="C4" t="n">
-        <v>810.0409570294266</v>
+        <v>1726.400299836512</v>
       </c>
       <c r="D4" t="n">
-        <v>644.1629642309493</v>
+        <v>1560.522307038035</v>
       </c>
       <c r="E4" t="n">
-        <v>644.1629642309493</v>
+        <v>1390.764303288772</v>
       </c>
       <c r="F4" t="n">
-        <v>467.4559101927056</v>
+        <v>1214.057249250528</v>
       </c>
       <c r="G4" t="n">
-        <v>301.8646352185332</v>
+        <v>1048.465974276356</v>
       </c>
       <c r="H4" t="n">
-        <v>161.9624609089078</v>
+        <v>1048.465974276356</v>
       </c>
       <c r="I4" t="n">
-        <v>73.30251168358309</v>
+        <v>1048.465974276356</v>
       </c>
       <c r="J4" t="n">
-        <v>159.882196848273</v>
+        <v>1135.045659441046</v>
       </c>
       <c r="K4" t="n">
-        <v>434.6406514194085</v>
+        <v>1409.804114012181</v>
       </c>
       <c r="L4" t="n">
-        <v>852.8505331873696</v>
+        <v>1828.013995780142</v>
       </c>
       <c r="M4" t="n">
-        <v>1312.334400368283</v>
+        <v>2287.497862961055</v>
       </c>
       <c r="N4" t="n">
-        <v>1754.593203525927</v>
+        <v>2729.7566661187</v>
       </c>
       <c r="O4" t="n">
-        <v>2174.262452751709</v>
+        <v>3149.425915344481</v>
       </c>
       <c r="P4" t="n">
-        <v>2521.769346722051</v>
+        <v>3496.932809314823</v>
       </c>
       <c r="Q4" t="n">
-        <v>2689.962121586383</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R4" t="n">
-        <v>2689.962121586383</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S4" t="n">
-        <v>2530.720752884379</v>
+        <v>3646.886415136471</v>
       </c>
       <c r="T4" t="n">
-        <v>2284.841306462834</v>
+        <v>3401.006968714926</v>
       </c>
       <c r="U4" t="n">
-        <v>2006.40830571594</v>
+        <v>3122.573967968031</v>
       </c>
       <c r="V4" t="n">
-        <v>1719.45279758637</v>
+        <v>2835.618459838462</v>
       </c>
       <c r="W4" t="n">
-        <v>1447.426393172662</v>
+        <v>2563.592055424754</v>
       </c>
       <c r="X4" t="n">
-        <v>1202.034638506074</v>
+        <v>2318.200300758166</v>
       </c>
       <c r="Y4" t="n">
-        <v>974.6149678201823</v>
+        <v>2090.780630072275</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1628.024501406311</v>
+        <v>1774.484990309393</v>
       </c>
       <c r="C5" t="n">
-        <v>1628.024501406311</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="D5" t="n">
-        <v>1192.114716580755</v>
+        <v>1336.342517492816</v>
       </c>
       <c r="E5" t="n">
-        <v>1192.114716580755</v>
+        <v>902.5677726511115</v>
       </c>
       <c r="F5" t="n">
-        <v>764.247286989963</v>
+        <v>474.7003430603193</v>
       </c>
       <c r="G5" t="n">
-        <v>362.8494556132268</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H5" t="n">
-        <v>73.71930105644309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I5" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J5" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K5" t="n">
-        <v>907.652803641761</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="L5" t="n">
-        <v>1814.771385726102</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="M5" t="n">
-        <v>1814.771385726102</v>
+        <v>980.4210937679239</v>
       </c>
       <c r="N5" t="n">
-        <v>1814.771385726102</v>
+        <v>1214.044276549766</v>
       </c>
       <c r="O5" t="n">
-        <v>2721.889967810442</v>
+        <v>2121.162858634107</v>
       </c>
       <c r="P5" t="n">
-        <v>3550.199842643838</v>
+        <v>2949.472733467504</v>
       </c>
       <c r="Q5" t="n">
-        <v>3665.125584179154</v>
+        <v>3495.971519426098</v>
       </c>
       <c r="R5" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S5" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T5" t="n">
-        <v>3445.058357052193</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U5" t="n">
-        <v>3445.058357052193</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V5" t="n">
-        <v>3082.44140698602</v>
+        <v>3433.068602504303</v>
       </c>
       <c r="W5" t="n">
-        <v>2677.585952397053</v>
+        <v>3028.213147915337</v>
       </c>
       <c r="X5" t="n">
-        <v>2258.443488976364</v>
+        <v>2609.070684494648</v>
       </c>
       <c r="Y5" t="n">
-        <v>1850.157365276017</v>
+        <v>2200.784560794301</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2508.057567691639</v>
+        <v>579.4742566748758</v>
       </c>
       <c r="C6" t="n">
-        <v>2401.601106528281</v>
+        <v>473.0177955115182</v>
       </c>
       <c r="D6" t="n">
-        <v>2306.510817674834</v>
+        <v>377.9275066580714</v>
       </c>
       <c r="E6" t="n">
-        <v>2212.390403001788</v>
+        <v>283.8070919850251</v>
       </c>
       <c r="F6" t="n">
-        <v>2129.00656461795</v>
+        <v>200.4232536011867</v>
       </c>
       <c r="G6" t="n">
-        <v>2043.621474884133</v>
+        <v>115.0381638673706</v>
       </c>
       <c r="H6" t="n">
-        <v>2001.885822700346</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I6" t="n">
-        <v>2001.885822700346</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J6" t="n">
-        <v>2326.444147666558</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K6" t="n">
-        <v>3007.177667736936</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="L6" t="n">
-        <v>3665.125584179154</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="M6" t="n">
-        <v>3665.125584179154</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="N6" t="n">
-        <v>3665.125584179154</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="O6" t="n">
-        <v>3665.125584179154</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="P6" t="n">
-        <v>3665.125584179154</v>
+        <v>1078.630556435977</v>
       </c>
       <c r="Q6" t="n">
-        <v>3665.125584179154</v>
+        <v>1619.369495068052</v>
       </c>
       <c r="R6" t="n">
-        <v>3665.125584179154</v>
+        <v>1736.542273162392</v>
       </c>
       <c r="S6" t="n">
-        <v>3601.670146627538</v>
+        <v>1673.086835610775</v>
       </c>
       <c r="T6" t="n">
-        <v>3471.491502958139</v>
+        <v>1542.908191941377</v>
       </c>
       <c r="U6" t="n">
-        <v>3295.154955958108</v>
+        <v>1366.571644941345</v>
       </c>
       <c r="V6" t="n">
-        <v>3096.037438020107</v>
+        <v>1167.454127003344</v>
       </c>
       <c r="W6" t="n">
-        <v>2910.714683753301</v>
+        <v>982.1313727365382</v>
       </c>
       <c r="X6" t="n">
-        <v>2755.847247992181</v>
+        <v>827.2639369754182</v>
       </c>
       <c r="Y6" t="n">
-        <v>2629.361468771402</v>
+        <v>700.778157754639</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1152.360672295464</v>
+        <v>942.0377178031986</v>
       </c>
       <c r="C7" t="n">
-        <v>979.7989607786893</v>
+        <v>769.4760062864235</v>
       </c>
       <c r="D7" t="n">
-        <v>813.920967980212</v>
+        <v>725.2610187548873</v>
       </c>
       <c r="E7" t="n">
-        <v>644.1629642309493</v>
+        <v>555.5030150056247</v>
       </c>
       <c r="F7" t="n">
-        <v>467.4559101927056</v>
+        <v>378.7959609673809</v>
       </c>
       <c r="G7" t="n">
-        <v>301.8646352185332</v>
+        <v>213.2046859932086</v>
       </c>
       <c r="H7" t="n">
-        <v>161.9624609089078</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I7" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J7" t="n">
         <v>159.882196848273</v>
@@ -4752,25 +4752,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S7" t="n">
-        <v>2530.720752884379</v>
+        <v>2689.962121586383</v>
       </c>
       <c r="T7" t="n">
-        <v>2284.841306462834</v>
+        <v>2444.082675164838</v>
       </c>
       <c r="U7" t="n">
-        <v>2006.40830571594</v>
+        <v>2165.649674417943</v>
       </c>
       <c r="V7" t="n">
-        <v>1719.45279758637</v>
+        <v>1878.694166288373</v>
       </c>
       <c r="W7" t="n">
-        <v>1447.426393172662</v>
+        <v>1606.667761874665</v>
       </c>
       <c r="X7" t="n">
-        <v>1447.426393172662</v>
+        <v>1361.276007208078</v>
       </c>
       <c r="Y7" t="n">
-        <v>1344.179291014452</v>
+        <v>1133.856336522186</v>
       </c>
     </row>
     <row r="8">
@@ -4780,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.925021918071</v>
+        <v>2064.031934239037</v>
       </c>
       <c r="C8" t="n">
-        <v>1643.925021918071</v>
+        <v>1625.88946142246</v>
       </c>
       <c r="D8" t="n">
         <v>1625.88946142246</v>
@@ -4798,58 +4798,58 @@
         <v>362.8494556132268</v>
       </c>
       <c r="H8" t="n">
-        <v>73.71930105644309</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I8" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J8" t="n">
-        <v>508.557199136501</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K8" t="n">
-        <v>1342.907491094679</v>
+        <v>907.652803641761</v>
       </c>
       <c r="L8" t="n">
-        <v>1342.907491094679</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="M8" t="n">
-        <v>1342.907491094679</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="N8" t="n">
-        <v>1342.907491094679</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="O8" t="n">
-        <v>2250.02607317902</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P8" t="n">
-        <v>3078.335948012416</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q8" t="n">
-        <v>3624.83473397101</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R8" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S8" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T8" t="n">
-        <v>3665.125584179154</v>
+        <v>3658.932926015213</v>
       </c>
       <c r="U8" t="n">
-        <v>3665.125584179154</v>
+        <v>3658.932926015213</v>
       </c>
       <c r="V8" t="n">
-        <v>3302.508634112981</v>
+        <v>3296.315975949039</v>
       </c>
       <c r="W8" t="n">
-        <v>2897.653179524014</v>
+        <v>2891.460521360073</v>
       </c>
       <c r="X8" t="n">
-        <v>2478.510716103325</v>
+        <v>2472.318057939383</v>
       </c>
       <c r="Y8" t="n">
-        <v>2070.224592402978</v>
+        <v>2064.031934239037</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H9" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I9" t="n">
-        <v>99.36618484404069</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J9" t="n">
-        <v>99.36618484404069</v>
+        <v>423.924509810253</v>
       </c>
       <c r="K9" t="n">
-        <v>99.36618484404069</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L9" t="n">
-        <v>99.36618484404069</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M9" t="n">
-        <v>1006.484766928381</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N9" t="n">
-        <v>1006.484766928381</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O9" t="n">
-        <v>1006.484766928381</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P9" t="n">
         <v>1078.630556435977</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1152.360672295464</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C10" t="n">
-        <v>979.7989607786893</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D10" t="n">
-        <v>813.920967980212</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E10" t="n">
-        <v>644.1629642309493</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F10" t="n">
-        <v>467.4559101927056</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G10" t="n">
-        <v>301.8646352185332</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H10" t="n">
-        <v>161.9624609089078</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I10" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J10" t="n">
         <v>159.882196848273</v>
@@ -4989,25 +4989,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S10" t="n">
-        <v>2689.962121586383</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T10" t="n">
-        <v>2444.082675164838</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U10" t="n">
-        <v>2375.972628910209</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V10" t="n">
-        <v>2089.017120780639</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W10" t="n">
-        <v>1816.990716366931</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X10" t="n">
-        <v>1571.598961700343</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y10" t="n">
-        <v>1344.179291014452</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1643.925021918071</v>
+        <v>2499.941719064592</v>
       </c>
       <c r="C11" t="n">
-        <v>1205.782549101494</v>
+        <v>2061.799246248016</v>
       </c>
       <c r="D11" t="n">
-        <v>769.8727642759386</v>
+        <v>1625.88946142246</v>
       </c>
       <c r="E11" t="n">
-        <v>336.0980194342338</v>
+        <v>1192.114716580755</v>
       </c>
       <c r="F11" t="n">
-        <v>73.30251168358309</v>
+        <v>764.247286989963</v>
       </c>
       <c r="G11" t="n">
-        <v>73.30251168358309</v>
+        <v>362.8494556132268</v>
       </c>
       <c r="H11" t="n">
-        <v>73.30251168358309</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I11" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J11" t="n">
-        <v>508.557199136501</v>
+        <v>109.4195459679548</v>
       </c>
       <c r="K11" t="n">
-        <v>1342.907491094679</v>
+        <v>943.7698379261327</v>
       </c>
       <c r="L11" t="n">
-        <v>1342.907491094679</v>
+        <v>1850.888420010474</v>
       </c>
       <c r="M11" t="n">
-        <v>1342.907491094679</v>
+        <v>2758.007002094815</v>
       </c>
       <c r="N11" t="n">
-        <v>1342.907491094679</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="O11" t="n">
-        <v>2250.02607317902</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="P11" t="n">
-        <v>3078.335948012416</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="Q11" t="n">
-        <v>3624.83473397101</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R11" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S11" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T11" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U11" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V11" t="n">
-        <v>3302.508634112981</v>
+        <v>3302.508634112982</v>
       </c>
       <c r="W11" t="n">
-        <v>2897.653179524014</v>
+        <v>3302.508634112982</v>
       </c>
       <c r="X11" t="n">
-        <v>2478.510716103325</v>
+        <v>3302.508634112982</v>
       </c>
       <c r="Y11" t="n">
-        <v>2070.224592402978</v>
+        <v>2926.2412895495</v>
       </c>
     </row>
     <row r="12">
@@ -5114,10 +5114,10 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H12" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I12" t="n">
-        <v>99.36618484404069</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J12" t="n">
         <v>423.924509810253</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1063.70072307014</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C13" t="n">
-        <v>891.1390115533646</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D13" t="n">
-        <v>725.2610187548873</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E13" t="n">
-        <v>555.5030150056247</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F13" t="n">
-        <v>378.7959609673809</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G13" t="n">
-        <v>213.2046859932086</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H13" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I13" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J13" t="n">
         <v>159.882196848273</v>
@@ -5226,25 +5226,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S13" t="n">
-        <v>2689.962121586383</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T13" t="n">
-        <v>2565.745680431779</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U13" t="n">
-        <v>2287.312679684884</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V13" t="n">
-        <v>2000.357171555315</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W13" t="n">
-        <v>1728.330767141606</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X13" t="n">
-        <v>1482.939012475019</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y13" t="n">
-        <v>1255.519341789127</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2006.541971984244</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C14" t="n">
-        <v>1568.399499167668</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D14" t="n">
-        <v>1132.489714342112</v>
+        <v>1132.489714342113</v>
       </c>
       <c r="E14" t="n">
-        <v>698.7149695004073</v>
+        <v>698.7149695004082</v>
       </c>
       <c r="F14" t="n">
-        <v>270.847539909615</v>
+        <v>270.8475399096159</v>
       </c>
       <c r="G14" t="n">
-        <v>73.71930105644309</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="H14" t="n">
-        <v>73.71930105644309</v>
+        <v>73.7193010564431</v>
       </c>
       <c r="I14" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J14" t="n">
-        <v>508.557199136501</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="K14" t="n">
-        <v>1342.907491094679</v>
+        <v>907.652803641761</v>
       </c>
       <c r="L14" t="n">
-        <v>1342.907491094679</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="M14" t="n">
-        <v>1342.907491094679</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="N14" t="n">
-        <v>1342.907491094679</v>
+        <v>1814.771385726102</v>
       </c>
       <c r="O14" t="n">
-        <v>2250.02607317902</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P14" t="n">
-        <v>3078.335948012416</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q14" t="n">
-        <v>3624.83473397101</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R14" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S14" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T14" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U14" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V14" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W14" t="n">
-        <v>3260.270129590188</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X14" t="n">
-        <v>2841.127666169499</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y14" t="n">
-        <v>2432.841542469152</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H15" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I15" t="n">
-        <v>99.36618484404069</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J15" t="n">
         <v>423.924509810253</v>
       </c>
       <c r="K15" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="L15" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="M15" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="N15" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="O15" t="n">
-        <v>1078.630556435977</v>
+        <v>423.924509810253</v>
       </c>
       <c r="P15" t="n">
         <v>1078.630556435977</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1063.70072307014</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C16" t="n">
-        <v>891.1390115533646</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D16" t="n">
-        <v>725.2610187548873</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E16" t="n">
-        <v>555.5030150056247</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F16" t="n">
-        <v>378.7959609673809</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G16" t="n">
-        <v>213.2046859932086</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H16" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I16" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J16" t="n">
         <v>159.882196848273</v>
@@ -5463,25 +5463,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S16" t="n">
-        <v>2689.962121586383</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T16" t="n">
-        <v>2565.745680431779</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U16" t="n">
-        <v>2287.312679684884</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V16" t="n">
-        <v>2000.357171555315</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W16" t="n">
-        <v>1728.330767141606</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X16" t="n">
-        <v>1482.939012475019</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y16" t="n">
-        <v>1255.519341789127</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
         <v>2090.757574835212</v>
@@ -5503,64 +5503,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423626</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993932</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.389162827329</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5761,7 +5761,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5779,25 +5779,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5977,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6451,40 +6451,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532228</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6502,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
         <v>1654.847790009657</v>
@@ -6691,37 +6691,37 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6733,16 +6733,16 @@
         <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
         <v>2955.199618136697</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3346.878440713113</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>3174.316729196338</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>3008.438736397861</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>2838.680732648598</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>2661.973678610354</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>5094.802844496297</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>4848.923398074752</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>4570.490397327858</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>4283.534889198289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>4011.50848478458</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>3766.116730117992</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>3538.697059432101</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7183,13 +7183,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423628</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
@@ -7204,22 +7204,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7359,25 +7359,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2210.394775134949</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C41" t="n">
-        <v>1772.252302318372</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D41" t="n">
-        <v>1336.342517492816</v>
+        <v>1132.489714342113</v>
       </c>
       <c r="E41" t="n">
-        <v>902.5677726511115</v>
+        <v>698.7149695004082</v>
       </c>
       <c r="F41" t="n">
-        <v>474.7003430603192</v>
+        <v>270.8475399096159</v>
       </c>
       <c r="G41" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H41" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I41" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J41" t="n">
-        <v>73.30251168358309</v>
+        <v>508.557199136501</v>
       </c>
       <c r="K41" t="n">
-        <v>907.652803641761</v>
+        <v>1342.907491094679</v>
       </c>
       <c r="L41" t="n">
         <v>1383.198341302823</v>
@@ -7432,31 +7432,31 @@
         <v>3118.62679822056</v>
       </c>
       <c r="Q41" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R41" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S41" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T41" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U41" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V41" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W41" t="n">
-        <v>3464.122932740892</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X41" t="n">
-        <v>3044.980469320203</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y41" t="n">
-        <v>2636.694345619856</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H42" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I42" t="n">
-        <v>99.36618484404069</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J42" t="n">
         <v>423.924509810253</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>923.7985487605142</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C43" t="n">
-        <v>751.2368372437392</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D43" t="n">
-        <v>585.3588444452619</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E43" t="n">
         <v>415.6008406959992</v>
@@ -7560,13 +7560,13 @@
         <v>238.8937866577554</v>
       </c>
       <c r="G43" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H43" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I43" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J43" t="n">
         <v>159.882196848273</v>
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1197.605242458808</v>
+        <v>2006.541971984245</v>
       </c>
       <c r="C44" t="n">
-        <v>1197.605242458808</v>
+        <v>1568.399499167669</v>
       </c>
       <c r="D44" t="n">
-        <v>1197.605242458808</v>
+        <v>1132.489714342113</v>
       </c>
       <c r="E44" t="n">
-        <v>763.830497617103</v>
+        <v>698.7149695004082</v>
       </c>
       <c r="F44" t="n">
-        <v>763.830497617103</v>
+        <v>270.8475399096159</v>
       </c>
       <c r="G44" t="n">
-        <v>362.4326662403668</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H44" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I44" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J44" t="n">
         <v>508.557199136501</v>
@@ -7654,46 +7654,46 @@
         <v>1342.907491094679</v>
       </c>
       <c r="L44" t="n">
-        <v>1342.907491094679</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="M44" t="n">
-        <v>1342.907491094679</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="N44" t="n">
-        <v>1342.907491094679</v>
+        <v>1383.198341302823</v>
       </c>
       <c r="O44" t="n">
-        <v>2250.02607317902</v>
+        <v>2290.316923387164</v>
       </c>
       <c r="P44" t="n">
-        <v>3078.335948012416</v>
+        <v>3118.62679822056</v>
       </c>
       <c r="Q44" t="n">
-        <v>3624.83473397101</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="R44" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="S44" t="n">
-        <v>3665.125584179154</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="T44" t="n">
-        <v>3445.058357052193</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="U44" t="n">
-        <v>3185.83605436921</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="V44" t="n">
-        <v>2823.219104303036</v>
+        <v>3665.125584179155</v>
       </c>
       <c r="W44" t="n">
-        <v>2418.36364971407</v>
+        <v>3260.270129590189</v>
       </c>
       <c r="X44" t="n">
-        <v>1999.22118629338</v>
+        <v>2841.1276661695</v>
       </c>
       <c r="Y44" t="n">
-        <v>1590.935062593034</v>
+        <v>2432.841542469153</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>115.0381638673706</v>
       </c>
       <c r="H45" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I45" t="n">
-        <v>99.36618484404069</v>
+        <v>99.3661848440407</v>
       </c>
       <c r="J45" t="n">
         <v>423.924509810253</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1152.360672295464</v>
+        <v>923.7985487605143</v>
       </c>
       <c r="C46" t="n">
-        <v>979.7989607786893</v>
+        <v>751.2368372437393</v>
       </c>
       <c r="D46" t="n">
-        <v>813.920967980212</v>
+        <v>585.358844445262</v>
       </c>
       <c r="E46" t="n">
-        <v>644.1629642309493</v>
+        <v>415.6008406959992</v>
       </c>
       <c r="F46" t="n">
-        <v>467.4559101927056</v>
+        <v>238.8937866577554</v>
       </c>
       <c r="G46" t="n">
-        <v>301.8646352185332</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="H46" t="n">
-        <v>161.9624609089078</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="I46" t="n">
-        <v>73.30251168358309</v>
+        <v>73.30251168358311</v>
       </c>
       <c r="J46" t="n">
         <v>159.882196848273</v>
@@ -7833,25 +7833,25 @@
         <v>2689.962121586383</v>
       </c>
       <c r="S46" t="n">
-        <v>2689.962121586383</v>
+        <v>2671.722952543698</v>
       </c>
       <c r="T46" t="n">
-        <v>2654.405629657103</v>
+        <v>2425.843506122153</v>
       </c>
       <c r="U46" t="n">
-        <v>2375.972628910209</v>
+        <v>2147.410505375259</v>
       </c>
       <c r="V46" t="n">
-        <v>2089.017120780639</v>
+        <v>1860.454997245689</v>
       </c>
       <c r="W46" t="n">
-        <v>1816.990716366931</v>
+        <v>1588.428592831981</v>
       </c>
       <c r="X46" t="n">
-        <v>1571.598961700343</v>
+        <v>1343.036838165393</v>
       </c>
       <c r="Y46" t="n">
-        <v>1344.179291014452</v>
+        <v>1115.617167479501</v>
       </c>
     </row>
   </sheetData>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>842.7780726850283</v>
@@ -7987,22 +7987,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>916.2813960447884</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>916.2813960447884</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.48185281249698</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>763.7587670651193</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O5" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P5" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q5" t="n">
-        <v>116.0866076114307</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L6" t="n">
-        <v>664.5938549921402</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>916.2813960447888</v>
+        <v>480.3490279404664</v>
       </c>
       <c r="P8" t="n">
         <v>836.6766412458549</v>
@@ -8476,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>40.69782849307467</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>72.87453485615674</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>36.48185281249663</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O11" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.69782849307467</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8771,7 +8771,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>916.2813960447888</v>
+        <v>480.3490279404664</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8950,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>40.69782849307467</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352437</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>922.699389992646</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>935.0031416802852</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10366,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,16 +10831,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>480.3490279404667</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>40.69782849307467</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -22549,10 +22549,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>313.5451422883971</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,19 +22597,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>63.29621251235679</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22704,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.97216184894913</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22722,10 +22722,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22755,7 +22755,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>202.1250395490494</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -22801,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,13 +22837,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>129.2543687074082</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -22947,7 +22947,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22962,7 +22962,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,7 +22992,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>122.9308428424049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>413.6954820866453</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23074,7 +23074,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>211.7358232733885</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -23196,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23229,13 +23229,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -23269,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>163.4212026217401</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>31.69859134549608</v>
       </c>
     </row>
     <row r="12">
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23466,10 +23466,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>202.2268965983286</v>
+        <v>202.2268965983276</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23703,10 +23703,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>201.8142751191963</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
@@ -25690,7 +25690,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>201.8142751191976</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>32.64005284717507</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>201.8142751191963</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -25918,13 +25918,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>519218.860092991</v>
+        <v>519218.8600929912</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>519218.8600929911</v>
+        <v>519218.8600929912</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>519218.8600929911</v>
+        <v>519218.8600929912</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>519218.8600929911</v>
+        <v>519218.8600929912</v>
       </c>
     </row>
     <row r="7">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>519218.8600929911</v>
+        <v>519218.8600929912</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>519218.8600929911</v>
+        <v>519218.8600929912</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>228270.9054802363</v>
+        <v>228270.9054802364</v>
       </c>
       <c r="C2" t="n">
         <v>228270.9054802363</v>
       </c>
       <c r="D2" t="n">
-        <v>228270.9054802363</v>
+        <v>228270.9054802364</v>
       </c>
       <c r="E2" t="n">
         <v>228270.9054802363</v>
@@ -26346,10 +26346,10 @@
         <v>289771.6712755437</v>
       </c>
       <c r="M2" t="n">
-        <v>289771.6712755438</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="N2" t="n">
-        <v>289771.6712755439</v>
+        <v>289771.6712755437</v>
       </c>
       <c r="O2" t="n">
         <v>228270.9054802363</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>307066.9702867177</v>
+        <v>307066.9702867178</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>99213.04363527206</v>
+        <v>99213.04363527198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>21808.44558019529</v>
       </c>
       <c r="C4" t="n">
-        <v>21808.44558019528</v>
+        <v>21808.44558019529</v>
       </c>
       <c r="D4" t="n">
         <v>21808.44558019529</v>
@@ -26432,7 +26432,7 @@
         <v>21808.44558019529</v>
       </c>
       <c r="G4" t="n">
-        <v>27684.07875020267</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="H4" t="n">
         <v>27684.07875020268</v>
@@ -26453,7 +26453,7 @@
         <v>27684.07875020268</v>
       </c>
       <c r="N4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020269</v>
       </c>
       <c r="O4" t="n">
         <v>21808.44558019529</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="C5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="D5" t="n">
-        <v>89337.50887952314</v>
+        <v>89337.50887952316</v>
       </c>
       <c r="E5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="F5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26508,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
       <c r="P5" t="n">
-        <v>55709.90887952314</v>
+        <v>55709.90887952316</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-189942.0192661998</v>
+        <v>-190244.7925410157</v>
       </c>
       <c r="C6" t="n">
-        <v>117124.9510205179</v>
+        <v>116822.177745702</v>
       </c>
       <c r="D6" t="n">
-        <v>117124.9510205179</v>
+        <v>116822.1777457021</v>
       </c>
       <c r="E6" t="n">
-        <v>150752.5510205179</v>
+        <v>150449.777745702</v>
       </c>
       <c r="F6" t="n">
-        <v>150752.5510205179</v>
+        <v>150449.777745702</v>
       </c>
       <c r="G6" t="n">
-        <v>85156.31028427649</v>
+        <v>85133.08594489392</v>
       </c>
       <c r="H6" t="n">
-        <v>184369.3539195486</v>
+        <v>184346.129580166</v>
       </c>
       <c r="I6" t="n">
-        <v>184369.3539195486</v>
+        <v>184346.1295801659</v>
       </c>
       <c r="J6" t="n">
-        <v>-55370.17566719411</v>
+        <v>-55393.40000657681</v>
       </c>
       <c r="K6" t="n">
-        <v>184369.3539195486</v>
+        <v>184346.1295801659</v>
       </c>
       <c r="L6" t="n">
-        <v>184369.3539195486</v>
+        <v>184346.1295801659</v>
       </c>
       <c r="M6" t="n">
-        <v>184369.3539195486</v>
+        <v>184346.1295801659</v>
       </c>
       <c r="N6" t="n">
-        <v>184369.3539195487</v>
+        <v>184346.1295801659</v>
       </c>
       <c r="O6" t="n">
-        <v>150752.5510205179</v>
+        <v>150449.777745702</v>
       </c>
       <c r="P6" t="n">
-        <v>150752.5510205178</v>
+        <v>150449.777745702</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="D4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="E4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="F4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26828,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>361.9791073399567</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447887</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>361.9791073399567</v>
+        <v>361.9791073399565</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
         <v>842.7780726850283</v>
@@ -34707,22 +34707,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>916.2813960447885</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>916.2813960447884</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>916.2813960447884</v>
+        <v>786.1165328681095</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.48185281249698</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,16 +34792,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>763.7587670651193</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,16 +34856,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
@@ -34938,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>916.2813960447885</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>235.983012910952</v>
       </c>
       <c r="O5" t="n">
-        <v>916.2813960447884</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P5" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q5" t="n">
-        <v>116.0866076114307</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.8366918850631</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L6" t="n">
-        <v>664.5938549921402</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35035,10 +35035,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35172,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>916.2813960447888</v>
+        <v>480.3490279404664</v>
       </c>
       <c r="P8" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R8" t="n">
-        <v>40.69782849307467</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35260,7 +35260,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>916.2813960447886</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35269,7 +35269,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>72.87453485615674</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>36.48185281249663</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="O11" t="n">
-        <v>916.2813960447888</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.69782849307467</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35646,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>916.2813960447889</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35661,16 +35661,16 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>916.2813960447888</v>
+        <v>480.3490279404664</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R14" t="n">
-        <v>40.69782849307467</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35743,7 +35743,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35883,19 +35883,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352437</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -36129,10 +36129,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>922.699389992646</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>935.0031416802852</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37086,13 +37086,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37478,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,16 +37551,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>801.4298400828734</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
@@ -37779,13 +37779,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>480.3490279404667</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37794,13 +37794,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>916.2813960447886</v>
+        <v>916.2813960447888</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38022,7 +38022,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>40.69782849307467</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38034,13 +38034,13 @@
         <v>916.2813960447888</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>552.0189757157527</v>
       </c>
       <c r="R44" t="n">
-        <v>40.69782849307467</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158823</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
